--- a/5-superficie/evaluaciones/AranzabeMikel-20181128.xlsx
+++ b/5-superficie/evaluaciones/AranzabeMikel-20181128.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikel\Documents\GitHub\Elementos-de-la-UX\5-superficie\evaluaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47519A02-7E64-426B-A726-0A381DA9B160}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B158FE-3EBE-45EE-9961-E953E3306032}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2xrU6ULNiBWh5/D1yqtqfDXEytAesw2ZR5xG+9ijSxe/fcPJZK0IGKbPDchNtQpFBAj8N/4WZgguw96FdrEMJA==" workbookSaltValue="Spg6VbYbpLv/Iy25VR1+Sw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -944,7 +944,7 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
